--- a/other stuff/sex_events.xlsx
+++ b/other stuff/sex_events.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elis/Documents/PhD Analytical Sociology/Research/Sexual history/media-sexual-history/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elis/Documents/PhD Analytical Sociology/Research/Sexual history/media-sexual-history/other stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82FD622-A43A-0249-9E46-A7A846A4ADD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70F0DF7-DDD1-3146-9E96-E854D06E5A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2980" windowWidth="28040" windowHeight="17440" xr2:uid="{4CFA5BAB-F904-DC44-A1D8-FBB2D27DB55A}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>time</t>
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>source</t>
   </si>
   <si>
     <t>RFSU</t>
@@ -665,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068BD34F-086B-B04B-BE10-929B7CF4917D}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,9 +673,9 @@
     <col min="3" max="3" width="73.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -686,990 +683,783 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1907</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1910</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1911</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1915</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1919</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
       <c r="B7">
         <v>1920</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1921</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1921</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1921</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>1933</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
       </c>
       <c r="B12">
         <v>1933</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
       </c>
       <c r="B13">
         <v>1933</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1936</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1936</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1936</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>27</v>
       </c>
       <c r="B17">
         <v>1937</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
       </c>
       <c r="B18">
         <v>1937</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>1938</v>
       </c>
       <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>32</v>
       </c>
       <c r="B20">
         <v>1938</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>1942</v>
       </c>
       <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
       </c>
       <c r="B22">
         <v>1944</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1946</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>1947</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>1947</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1947</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1948</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>1949</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>1950</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>1954</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>1955</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>1959</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>1961</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>1961</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>1965</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>1966</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1967</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>1968</v>
       </c>
       <c r="C38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>55</v>
       </c>
       <c r="B39">
         <v>1970</v>
       </c>
       <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>57</v>
       </c>
       <c r="B40">
         <v>1970</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>1972</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>1974</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>1974</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>1975</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>1976</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>1978</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>1979</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48">
         <v>1980</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>1982</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>1985</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>1985</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52">
         <v>1988</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>1989</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>1994</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>1996</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>1999</v>
       </c>
       <c r="C56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>74</v>
-      </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>75</v>
       </c>
       <c r="B57">
         <v>1999</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>1999</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>2001</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>2003</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61">
         <v>2003</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62">
         <v>2005</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>2007</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64">
         <v>2009</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65">
         <v>2010</v>
       </c>
       <c r="C65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>84</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>85</v>
       </c>
       <c r="B66">
         <v>2013</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>2014</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68">
         <v>2017</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69">
         <v>2018</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>2018</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71">
         <v>2019</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>2020</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
